--- a/YY_Npoi_ExportAndImport/wwwroot/ExcelFiles/Template.xlsx
+++ b/YY_Npoi_ExportAndImport/wwwroot/ExcelFiles/Template.xlsx
@@ -14,11 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
-  <si>
-    <t>用户编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,22 +530,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -565,208 +561,175 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>13030112590</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="D2">
+      <c r="C3">
         <v>13030112590</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="D3">
-        <v>13030112590</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C4">
+        <v>13030112595</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="D4">
+      <c r="C5">
+        <v>13030112599</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>13030112598</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>13030112597</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>13030112596</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
         <v>13030112595</v>
       </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5">
-        <v>13030112599</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>13030112598</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7">
-        <v>13030112597</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <v>13030112596</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="D9">
-        <v>13030112595</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C10">
+        <v>13030112594</v>
+      </c>
+      <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10">
-        <v>13030112594</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>13030112593</v>
+      </c>
+      <c r="D11" t="s">
         <v>31</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E11" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11">
-        <v>13030112593</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
